--- a/biology/Médecine/Muscle_aréolaire/Muscle_aréolaire.xlsx
+++ b/biology/Médecine/Muscle_aréolaire/Muscle_aréolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_ar%C3%A9olaire</t>
+          <t>Muscle_aréolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle aréolaire, aussi appelé muscle aréolo-mamelonnaire, est le muscle de l’érection du mamelon. Il s’agit d’un muscle lisse composé de fibres circulaires situées sous la peau de l’aréole et occupant toute l’extension de celle-ci, ainsi que de fibres radiées s’introduisant à partir de la base du mamelon « comme un doigt dans un doigtier » dans la peau du mamelon en prenant une forme conique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle aréolaire, aussi appelé muscle aréolo-mamelonnaire, est le muscle de l’érection du mamelon. Il s’agit d’un muscle lisse composé de fibres circulaires situées sous la peau de l’aréole et occupant toute l’extension de celle-ci, ainsi que de fibres radiées s’introduisant à partir de la base du mamelon « comme un doigt dans un doigtier » dans la peau du mamelon en prenant une forme conique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_ar%C3%A9olaire</t>
+          <t>Muscle_aréolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anciennement, deux muscles indépendants étaient décrits, l’un pour le mamelon et l’autre pour l’aréole. C’est Arturo Marcacci qui a isolé le muscle aréolaire et en a compris l’individualité physiologique ; c’est pourquoi il l’a appelé le « muscle aréolo-mamelonnaire »[2]. Ce muscle est d'ailleurs parfois appelé « muscle de Marcacci ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement, deux muscles indépendants étaient décrits, l’un pour le mamelon et l’autre pour l’aréole. C’est Arturo Marcacci qui a isolé le muscle aréolaire et en a compris l’individualité physiologique ; c’est pourquoi il l’a appelé le « muscle aréolo-mamelonnaire ». Ce muscle est d'ailleurs parfois appelé « muscle de Marcacci ».
 </t>
         </is>
       </c>
